--- a/pred_ohlcv/54_21/2020-01-14 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BHP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3953.1595</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>8162.7595</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>8303.2698</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>9275.6351</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>13828.1008</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>13823.8008</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>14305.2008</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>14296.0008</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>15153.4008</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>15462.8008</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>15762.8008</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>15762.8008</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>15796.6289</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>16020.1008</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>16020.1008</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>15893.5847</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>18838.7874</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>18845.4874</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>18841.4874</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>19459.5874</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>19426.7874</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>19976.3874</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>19863.0874</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>19863.0874</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>19863.0874</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>20141.34469999999</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>20360.64469999999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>20144.14469999999</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>20144.14469999999</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>19327.47569999999</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>19321.67569999999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>19331.97569999999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>21256.07569999999</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>22502.27569999999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>22791.67569999999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>22810.67569999999</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>22795.57569999999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>23398.57569999999</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>23381.67569999999</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>33134.87230000001</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>33134.87230000001</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>34041.07230000001</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>34032.3723</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>34032.3723</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>34032.3723</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>34032.3723</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>34032.3723</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>34038.2723</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>34022.4723</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>33009.9723</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>33009.9723</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>33028.5723</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>33028.5723</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>33028.5723</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>34258.8914</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>34232.2914</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>36192.7728</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>36192.7728</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>36189.6728</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>36185.8728</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>36185.8728</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>36179.9728</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>36179.9728</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>36175.4728</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>40345.87279999998</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>40345.87279999998</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>41064.67279999999</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>41257.87279999999</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>41257.87279999999</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>41427.27279999999</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>42012.07279999999</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>42658.97279999999</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>42658.97279999999</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>42649.37279999999</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>42649.37279999999</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>42393.45399999999</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>42399.454</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>42399.454</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>42399.454</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>42399.454</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>42399.454</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>42399.454</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>45903.35399999999</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>46233.35399999999</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>46229.05399999999</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>46215.55399999999</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>46672.16119999999</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>46658.66119999999</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>46658.66119999999</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>46654.26119999999</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>48277.25399999999</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>47685.55399999999</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>47698.95399999999</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>48158.85399999999</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>48230.15399999999</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>48218.554</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>48218.554</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>48218.554</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BHP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4653.1595</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4861.9595</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4861.9595</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4852.9595</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4849.2595</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4849.2595</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>5360.8595</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>6160.8595</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6160.8595</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6160.8595</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>6154.0595</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6154.0595</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>6154.0595</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6146.9595</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>6246.9595</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6404.6595</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6404.6595</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6404.6595</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>7244.6595</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>7605.9595</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>7178.3595</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>7170.8595</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>7370.8595</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>7772.759499999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>7772.759499999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7872.759499999999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>8162.7595</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>8303.2698</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>9275.6351</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>10457.0808</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>10457.0808</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>10457.0808</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>10739.5808</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>10739.5808</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>11283.5808</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>11283.5808</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>11283.5808</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>12236.1608</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>12226.8608</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>12218.5608</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>12815.5608</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>12815.5608</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>12815.5608</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>13828.1008</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>13828.1008</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>13823.8008</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>14305.2008</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>14296.0008</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>15155.9008</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>15153.4008</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>15468.4008</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>15462.8008</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>15762.8008</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>15762.8008</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>15796.6289</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>15793.3289</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>16020.1008</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>16020.1008</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>15020.1008</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>15896.6847</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>15893.5847</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>15885.2847</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>19141.5874</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>18838.7874</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>18845.4874</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>18841.4874</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>19459.5874</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>19435.7874</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>19426.7874</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>19987.7874</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>19976.3874</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>19976.3874</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>19479.8874</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>19863.0874</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>19863.0874</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>19863.0874</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>20141.34469999999</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>20360.64469999999</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>19972.94469999999</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>20144.14469999999</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>20144.14469999999</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>19327.47569999999</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>19321.67569999999</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>19331.97569999999</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>19785.37569999999</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>21256.07569999999</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>22405.17569999999</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>22390.07569999999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>22405.97569999999</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>22502.27569999999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>22928.27569999999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>22791.67569999999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>22810.67569999999</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>22795.57569999999</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>23398.57569999999</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>23381.67569999999</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>35991.6173</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>36192.7728</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>36192.7728</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>36189.6728</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>36185.8728</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>36185.8728</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>36179.9728</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>36179.9728</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>36175.4728</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>40345.87279999998</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>40345.87279999998</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>41064.67279999999</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>41062.07279999999</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>41275.37279999999</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>41257.87279999999</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>41257.87279999999</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>41437.87279999999</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>41427.27279999999</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>41740.47279999999</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>42015.37279999999</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>42012.07279999999</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>42658.97279999999</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>42658.97279999999</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>42649.37279999999</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>42649.37279999999</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>42393.45399999999</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>42404.35399999999</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>42414.65399999999</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>42399.454</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>42399.454</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>42399.454</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>42399.454</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>42399.454</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>42399.454</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>45903.35399999999</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>46233.35399999999</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>46229.05399999999</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>46215.55399999999</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>46672.16119999999</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>46658.66119999999</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>46658.66119999999</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>46654.26119999999</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>47268.66119999999</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>48277.25399999999</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>48274.65399999999</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>47685.55399999999</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>47698.95399999999</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>47827.35399999999</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>48158.85399999999</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>48140.65399999999</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>48126.75399999999</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>48230.15399999999</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>48219.75399999999</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>48218.554</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>48218.554</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>48218.554</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
